--- a/Moon_Phases_rev.xlsx
+++ b/Moon_Phases_rev.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\CS334-Homework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\3D Objects\AA-SCHOOL\CS334-Hoomework Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E008BE-1E00-4E0A-A0E9-0147A2890AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04192BA9-3F97-4C2B-A7CD-77C2762C63E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CF3BE37-9949-4FA5-ACB6-1B6C8A04A2D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CF3BE37-9949-4FA5-ACB6-1B6C8A04A2D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,12 +81,30 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EDF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,17 +120,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -431,12 +454,12 @@
   <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
@@ -447,7 +470,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4">
+      <c r="A1" s="3">
         <v>44061</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -455,7 +478,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>44068</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -464,7 +487,7 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>44075</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -472,7 +495,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>44084</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -488,7 +511,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>44097</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -496,7 +519,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>44105</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -504,7 +527,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>44113</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -512,7 +535,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>44120</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -520,7 +543,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>44127</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -528,7 +551,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>44135</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -536,16 +559,16 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>44143</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>44149</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -553,7 +576,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>44156</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -561,7 +584,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>44165</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -569,7 +592,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>44172</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -577,7 +600,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>44179</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -585,7 +608,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>44186</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -593,7 +616,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>44194</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -601,7 +624,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>44202</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -609,7 +632,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>44208</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -617,7 +640,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>44216</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -625,7 +648,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>44224</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -633,7 +656,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>44231</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -641,7 +664,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>44238</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -649,7 +672,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>44246</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -657,7 +680,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>44254</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -665,7 +688,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>44260</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -673,7 +696,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>44268</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -681,7 +704,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <v>44276</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -689,7 +712,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <v>44283</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -697,7 +720,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <v>44290</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -705,7 +728,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <v>44297</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -713,7 +736,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <v>44306</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -721,7 +744,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <v>44312</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -729,7 +752,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="5">
         <v>44319</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -737,7 +760,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>44327</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -745,7 +768,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>44335</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -753,7 +776,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>44342</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -761,7 +784,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>44349</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -769,7 +792,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <v>44357</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -777,7 +800,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <v>44364</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -785,7 +808,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <v>44371</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -793,7 +816,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="5">
         <v>44378</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -801,7 +824,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <v>44386</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -809,7 +832,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="5">
         <v>44394</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -817,7 +840,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <v>44400</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -825,7 +848,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="5">
         <v>44408</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -833,7 +856,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="5">
         <v>44416</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -841,7 +864,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50" s="5">
         <v>44423</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -849,7 +872,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="5">
         <v>44430</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -857,7 +880,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="A52" s="5">
         <v>44438</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -865,7 +888,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="5">
         <v>44445</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -873,7 +896,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="5">
         <v>44452</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -881,7 +904,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="5">
         <v>44459</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -889,7 +912,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="5">
         <v>44467</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -897,7 +920,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57" s="5">
         <v>44475</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -905,7 +928,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="A58" s="5">
         <v>44481</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -913,7 +936,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="5">
         <v>44489</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -921,7 +944,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="A60" s="5">
         <v>44497</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -929,7 +952,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="5">
         <v>44504</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -937,7 +960,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="A62" s="5">
         <v>44511</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -945,7 +968,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="5">
         <v>44519</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -953,7 +976,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="A64" s="5">
         <v>44527</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -961,7 +984,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="A65" s="5">
         <v>44534</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -969,7 +992,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="A66" s="5">
         <v>44540</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -977,7 +1000,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="A67" s="5">
         <v>44548</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -985,7 +1008,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="A68" s="5">
         <v>44556</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -993,7 +1016,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69" s="5">
         <v>44563</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -1001,7 +1024,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+      <c r="A70" s="5">
         <v>44570</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -1009,7 +1032,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="5">
         <v>44578</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -1017,7 +1040,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+      <c r="A72" s="5">
         <v>44586</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -1025,7 +1048,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="A73" s="5">
         <v>44592</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -1033,7 +1056,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+      <c r="A74" s="5">
         <v>44600</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -1041,7 +1064,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="A75" s="5">
         <v>44608</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -1049,7 +1072,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+      <c r="A76" s="5">
         <v>44615</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -1057,7 +1080,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="A77" s="5">
         <v>44622</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -1065,7 +1088,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+      <c r="A78" s="5">
         <v>44630</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -1073,7 +1096,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+      <c r="A79" s="5">
         <v>44638</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -1081,7 +1104,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+      <c r="A80" s="5">
         <v>44644</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -1089,7 +1112,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
+      <c r="A81" s="5">
         <v>44652</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -1097,7 +1120,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
+      <c r="A82" s="5">
         <v>44660</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -1105,7 +1128,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
+      <c r="A83" s="5">
         <v>44667</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -1113,7 +1136,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
+      <c r="A84" s="5">
         <v>44674</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -1121,7 +1144,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
+      <c r="A85" s="5">
         <v>44681</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -1129,7 +1152,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
+      <c r="A86" s="5">
         <v>44689</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -1137,7 +1160,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+      <c r="A87" s="5">
         <v>44696</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -1145,7 +1168,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
+      <c r="A88" s="5">
         <v>44703</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -1153,7 +1176,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+      <c r="A89" s="5">
         <v>44711</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -1161,7 +1184,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+      <c r="A90" s="5">
         <v>44719</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -1169,7 +1192,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
+      <c r="A91" s="5">
         <v>44726</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -1177,7 +1200,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
+      <c r="A92" s="5">
         <v>44732</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -1185,7 +1208,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+      <c r="A93" s="5">
         <v>44740</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -1193,7 +1216,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
+      <c r="A94" s="5">
         <v>44748</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -1201,7 +1224,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
+      <c r="A95" s="5">
         <v>44755</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -1209,7 +1232,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+      <c r="A96" s="5">
         <v>44762</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -1217,7 +1240,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
+      <c r="A97" s="5">
         <v>44770</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -1225,7 +1248,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
+      <c r="A98" s="5">
         <v>44778</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -1233,7 +1256,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
+      <c r="A99" s="5">
         <v>44784</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -1241,7 +1264,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
+      <c r="A100" s="5">
         <v>44791</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -1249,7 +1272,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
+      <c r="A101" s="5">
         <v>44800</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -1257,7 +1280,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
+      <c r="A102" s="5">
         <v>44807</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -1265,7 +1288,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
+      <c r="A103" s="5">
         <v>44814</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -1273,7 +1296,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
+      <c r="A104" s="5">
         <v>44821</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -1281,7 +1304,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
+      <c r="A105" s="5">
         <v>44829</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -1289,7 +1312,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="4">
+      <c r="A106" s="5">
         <v>44836</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -1297,7 +1320,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
+      <c r="A107" s="5">
         <v>44843</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -1305,7 +1328,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="4">
+      <c r="A108" s="5">
         <v>44851</v>
       </c>
       <c r="B108" s="1" t="s">
